--- a/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
+++ b/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1121">
   <si>
     <t>Serie</t>
   </si>
@@ -3374,6 +3374,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3731,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1109"/>
+  <dimension ref="A1:L1110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24450,6 +24453,38 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="1110" spans="1:12">
+      <c r="A1110" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1110">
+        <v>4.5</v>
+      </c>
+      <c r="E1110">
+        <v>3.6</v>
+      </c>
+      <c r="F1110">
+        <v>3.8</v>
+      </c>
+      <c r="G1110">
+        <v>2.9</v>
+      </c>
+      <c r="H1110">
+        <v>5.2</v>
+      </c>
+      <c r="I1110">
+        <v>5.9</v>
+      </c>
+      <c r="J1110">
+        <v>6</v>
+      </c>
+      <c r="K1110">
+        <v>12.5</v>
+      </c>
+      <c r="L1110">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
+++ b/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1122">
   <si>
     <t>Serie</t>
   </si>
@@ -3377,6 +3377,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3734,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1110"/>
+  <dimension ref="A1:L1111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24485,6 +24488,38 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="1111" spans="1:12">
+      <c r="A1111" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1111">
+        <v>4.8</v>
+      </c>
+      <c r="E1111">
+        <v>3.8</v>
+      </c>
+      <c r="F1111">
+        <v>3.8</v>
+      </c>
+      <c r="G1111">
+        <v>3.2</v>
+      </c>
+      <c r="H1111">
+        <v>4.8</v>
+      </c>
+      <c r="I1111">
+        <v>6.6</v>
+      </c>
+      <c r="J1111">
+        <v>6.3</v>
+      </c>
+      <c r="K1111">
+        <v>14.8</v>
+      </c>
+      <c r="L1111">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
+++ b/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1123">
   <si>
     <t>Serie</t>
   </si>
@@ -3380,6 +3380,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3737,7 +3740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1111"/>
+  <dimension ref="A1:L1112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24520,6 +24523,38 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="1112" spans="1:12">
+      <c r="A1112" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1112">
+        <v>5.3</v>
+      </c>
+      <c r="E1112">
+        <v>4.4</v>
+      </c>
+      <c r="F1112">
+        <v>4.2</v>
+      </c>
+      <c r="G1112">
+        <v>3.4</v>
+      </c>
+      <c r="H1112">
+        <v>5.3</v>
+      </c>
+      <c r="I1112">
+        <v>7.5</v>
+      </c>
+      <c r="J1112">
+        <v>6.9</v>
+      </c>
+      <c r="K1112">
+        <v>15.6</v>
+      </c>
+      <c r="L1112">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
+++ b/2/6/Variación anual 1929 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
   <si>
     <t>Serie</t>
   </si>
@@ -3383,6 +3383,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1112"/>
+  <dimension ref="A1:L1113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24555,6 +24558,38 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="1113" spans="1:12">
+      <c r="A1113" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1113">
+        <v>6</v>
+      </c>
+      <c r="E1113">
+        <v>5.1</v>
+      </c>
+      <c r="F1113">
+        <v>3.9</v>
+      </c>
+      <c r="G1113">
+        <v>3.6</v>
+      </c>
+      <c r="H1113">
+        <v>4.3</v>
+      </c>
+      <c r="I1113">
+        <v>9.9</v>
+      </c>
+      <c r="J1113">
+        <v>6.8</v>
+      </c>
+      <c r="K1113">
+        <v>18</v>
+      </c>
+      <c r="L1113">
+        <v>8.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
